--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H2">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.524709</v>
+        <v>5.855966</v>
       </c>
       <c r="N2">
-        <v>40.574127</v>
+        <v>17.567898</v>
       </c>
       <c r="O2">
-        <v>0.3707909693060993</v>
+        <v>0.2049970778295038</v>
       </c>
       <c r="P2">
-        <v>0.3707909693060993</v>
+        <v>0.2049970778295038</v>
       </c>
       <c r="Q2">
-        <v>377.2880773705267</v>
+        <v>3.851664037066667</v>
       </c>
       <c r="R2">
-        <v>3395.59269633474</v>
+        <v>34.6649763336</v>
       </c>
       <c r="S2">
-        <v>0.3707909693060993</v>
+        <v>0.2049970778295038</v>
       </c>
       <c r="T2">
-        <v>0.3707909693060993</v>
+        <v>0.2049970778295038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H3">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>45.792515</v>
       </c>
       <c r="O3">
-        <v>0.4184797623326336</v>
+        <v>0.5343457573275825</v>
       </c>
       <c r="P3">
-        <v>0.4184797623326336</v>
+        <v>0.5343457573275825</v>
       </c>
       <c r="Q3">
-        <v>425.8124874088111</v>
+        <v>10.03975451088889</v>
       </c>
       <c r="R3">
-        <v>3832.3123866793</v>
+        <v>90.35779059800001</v>
       </c>
       <c r="S3">
-        <v>0.4184797623326336</v>
+        <v>0.5343457573275825</v>
       </c>
       <c r="T3">
-        <v>0.4184797623326336</v>
+        <v>0.5343457573275825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>27.89620666666667</v>
+        <v>0.6577333333333334</v>
       </c>
       <c r="H4">
-        <v>83.68862</v>
+        <v>1.9732</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.686411666666667</v>
+        <v>7.445957333333333</v>
       </c>
       <c r="N4">
-        <v>23.059235</v>
+        <v>22.337872</v>
       </c>
       <c r="O4">
-        <v>0.2107292683612671</v>
+        <v>0.2606571648429137</v>
       </c>
       <c r="P4">
-        <v>0.2107292683612671</v>
+        <v>0.2606571648429137</v>
       </c>
       <c r="Q4">
-        <v>214.4217283784111</v>
+        <v>4.897454336711111</v>
       </c>
       <c r="R4">
-        <v>1929.7955554057</v>
+        <v>44.0770890304</v>
       </c>
       <c r="S4">
-        <v>0.2107292683612671</v>
+        <v>0.2606571648429137</v>
       </c>
       <c r="T4">
-        <v>0.2107292683612671</v>
+        <v>0.2606571648429137</v>
       </c>
     </row>
   </sheetData>
